--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_20_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40174.78371879662</v>
+        <v>7994781.96004053</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40174.78371879662</v>
+        <v>7994781.96004053</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>43205.87873030882</v>
+        <v>4125876.827113715</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43205.87873030882</v>
+        <v>4125876.827113715</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495978220.256372</v>
+        <v>58844973.73185998</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13619.31958958919</v>
+        <v>1440519.354359635</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25745.53832677591</v>
+        <v>2634863.572108505</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37871.75706396261</v>
+        <v>3829207.789857379</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51144.16334263977</v>
+        <v>4961618.958671955</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63795.66836868897</v>
+        <v>6154837.711477514</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76447.17339473817</v>
+        <v>7348056.464283069</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89098.67842078737</v>
+        <v>8541275.217088623</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101750.1834468366</v>
+        <v>9734493.969894176</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115093.8497860133</v>
+        <v>10764870.86208154</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128577.6858221598</v>
+        <v>11823141.52396587</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>142061.49629987</v>
+        <v>12881412.18585021</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>155545.3067775802</v>
+        <v>13939682.84773455</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>169029.1172552904</v>
+        <v>14997953.5096189</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>182512.9277330007</v>
+        <v>16056224.17150324</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>196702.4768981058</v>
+        <v>17027578.61920365</v>
       </c>
     </row>
   </sheetData>
